--- a/武器一覧表.xlsx
+++ b/武器一覧表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s162145\Desktop\卒業制作\Kaomoji_Fight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s152025\Documents\3年\卒業制作2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -245,13 +245,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>爆弾</t>
-    <rPh sb="0" eb="2">
-      <t>バクダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>近～遠</t>
     <rPh sb="0" eb="1">
       <t>キン</t>
@@ -2225,6 +2218,10 @@
   </si>
   <si>
     <t>Assets\Plugins\Effect\Particle Ribbon by Moonflower Carnivore\Prefabs\Spiral_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2683,21 +2680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2724,6 +2706,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3007,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3022,41 +3019,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3066,24 +3063,24 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I4" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3091,21 +3088,21 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="C5" s="19">
         <v>15</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="I5" s="23">
         <v>25</v>
@@ -3116,21 +3113,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="20">
         <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="I6" s="24">
         <v>57</v>
@@ -3141,19 +3138,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="20">
         <v>8</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="12"/>
       <c r="I7" s="24">
         <v>22</v>
@@ -3164,21 +3161,21 @@
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="20">
         <v>8</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="I8" s="24">
         <v>6</v>
@@ -3189,19 +3186,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="20">
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="12"/>
       <c r="I9" s="24">
         <v>13</v>
@@ -3212,21 +3209,21 @@
         <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="20">
         <v>20</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="I10" s="24">
         <v>42</v>
@@ -3237,21 +3234,21 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="I11" s="24">
         <v>14</v>
@@ -3262,19 +3259,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="20">
         <v>7</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="12"/>
       <c r="I12" s="24">
         <v>27</v>
@@ -3285,19 +3282,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="20">
         <v>10</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="12"/>
       <c r="I13" s="24">
         <v>13</v>
@@ -3308,19 +3305,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="20">
         <v>8</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="12"/>
       <c r="I14" s="24">
         <v>12</v>
@@ -3331,21 +3328,21 @@
         <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="20">
         <v>14</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" s="24">
         <v>6</v>
@@ -3356,21 +3353,21 @@
         <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="26" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="I16" s="24">
         <v>38</v>
@@ -3381,21 +3378,21 @@
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="20">
         <v>0</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="I17" s="24">
         <v>25</v>
@@ -3406,27 +3403,27 @@
         <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="20">
         <v>10</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I18" s="24">
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -3438,15 +3435,15 @@
         <v>0</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="I19" s="24">
         <v>14</v>
@@ -3457,21 +3454,21 @@
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I20" s="24">
         <v>52</v>
@@ -3482,21 +3479,21 @@
         <v>21</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="20">
         <v>8</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="I21" s="24">
         <v>8</v>
@@ -3507,21 +3504,21 @@
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="20">
         <v>6</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="I22" s="24">
         <v>7</v>
@@ -3532,21 +3529,21 @@
         <v>23</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="20">
         <v>5</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="I23" s="24">
         <v>44</v>
@@ -3557,21 +3554,21 @@
         <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="20">
         <v>5</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="I24" s="24">
         <v>46</v>
@@ -3582,21 +3579,21 @@
         <v>25</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="20">
         <v>4</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="I25" s="24">
         <v>43</v>
@@ -3607,21 +3604,21 @@
         <v>26</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="20">
         <v>0</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="I26" s="24">
         <v>38</v>
@@ -3632,21 +3629,21 @@
         <v>27</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="20">
         <v>5</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+        <v>236</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
       <c r="H27" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I27" s="24">
         <v>0</v>
@@ -3657,21 +3654,21 @@
         <v>28</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="20">
         <v>3</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="I28" s="24">
         <v>5</v>
@@ -3682,21 +3679,21 @@
         <v>29</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="20">
         <v>11</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="I29" s="24">
         <v>59</v>
@@ -3707,21 +3704,21 @@
         <v>30</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="20">
         <v>18</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="I30" s="24">
         <v>37</v>
@@ -3732,21 +3729,21 @@
         <v>31</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" s="20">
         <v>8</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="I31" s="24">
         <v>1</v>
@@ -3757,21 +3754,21 @@
         <v>32</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" s="20">
         <v>3</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="I32" s="24">
         <v>1</v>
@@ -3782,21 +3779,21 @@
         <v>33</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="20">
         <v>0</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I33" s="24">
         <v>1</v>
@@ -3807,21 +3804,21 @@
         <v>34</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" s="20">
         <v>2</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+        <v>61</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I34" s="24">
         <v>2</v>
@@ -3832,21 +3829,21 @@
         <v>35</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="20">
         <v>0</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="I35" s="24">
         <v>38</v>
@@ -3857,27 +3854,27 @@
         <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="20">
         <v>20</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="I36" s="24">
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -3885,21 +3882,21 @@
         <v>37</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="I37" s="24">
         <v>3</v>
@@ -3910,21 +3907,21 @@
         <v>38</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="20">
         <v>0</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="I38" s="24">
         <v>9</v>
@@ -3935,19 +3932,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" s="20">
         <v>18</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="12"/>
       <c r="I39" s="24">
         <v>28</v>
@@ -3958,19 +3955,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" s="20">
         <v>8</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="12"/>
       <c r="I40" s="24">
         <v>38</v>
@@ -3981,19 +3978,19 @@
         <v>41</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C41" s="20">
         <v>8</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
+        <v>71</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="12"/>
       <c r="I41" s="24">
         <v>13</v>
@@ -4004,21 +4001,21 @@
         <v>42</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="20">
         <v>0</v>
       </c>
       <c r="D42" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="I42" s="24">
         <v>3</v>
@@ -4029,27 +4026,27 @@
         <v>43</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C43" s="20">
         <v>5</v>
       </c>
       <c r="D43" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I43" s="24">
         <v>9</v>
       </c>
       <c r="J43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -4057,21 +4054,21 @@
         <v>44</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="12" t="s">
-        <v>192</v>
       </c>
       <c r="I44" s="24">
         <v>28</v>
@@ -4082,19 +4079,19 @@
         <v>45</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C45" s="20">
         <v>8</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="12"/>
       <c r="I45" s="24">
         <v>8</v>
@@ -4105,21 +4102,21 @@
         <v>46</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C46" s="20">
         <v>25</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="I46" s="24">
         <v>0</v>
@@ -4130,19 +4127,19 @@
         <v>47</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C47" s="20">
         <v>5</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
+        <v>197</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
       <c r="H47" s="12"/>
       <c r="I47" s="24">
         <v>12</v>
@@ -4153,21 +4150,21 @@
         <v>48</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="20">
         <v>100</v>
       </c>
       <c r="D48" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="I48" s="24">
         <v>5</v>
@@ -4178,21 +4175,21 @@
         <v>49</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C49" s="20">
         <v>0</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="I49" s="24">
         <v>23</v>
@@ -4203,21 +4200,21 @@
         <v>50</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="I50" s="24">
         <v>75</v>
@@ -4225,24 +4222,24 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
       <c r="H51" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I51" s="24">
         <v>37</v>
@@ -4250,22 +4247,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52" s="20">
         <v>9</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="12"/>
       <c r="I52" s="24">
         <v>1</v>
@@ -4273,24 +4270,24 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C53" s="20">
         <v>18</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="I53" s="24">
         <v>1</v>
@@ -4298,24 +4295,24 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C54" s="20">
         <v>33</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="I54" s="24">
         <v>2</v>
@@ -4323,24 +4320,24 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="16" t="s">
+      <c r="E55" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="I55" s="24">
         <v>5</v>
@@ -4348,16 +4345,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="13"/>
       <c r="I56" s="24">
         <v>0</v>
@@ -4365,22 +4362,22 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="20">
         <v>30</v>
       </c>
       <c r="D57" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
       <c r="H57" s="12"/>
       <c r="I57" s="24">
         <v>50</v>
@@ -4388,22 +4385,22 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C58" s="20">
         <v>10</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="12"/>
       <c r="I58" s="24">
         <v>3</v>
@@ -4411,22 +4408,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C59" s="20">
         <v>0</v>
       </c>
       <c r="D59" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
       <c r="H59" s="12"/>
       <c r="I59" s="24">
         <v>0</v>
@@ -4434,22 +4431,22 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C60" s="20">
         <v>4</v>
       </c>
       <c r="D60" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="E60" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
       <c r="H60" s="12"/>
       <c r="I60" s="24">
         <v>0</v>
@@ -4457,24 +4454,24 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C61" s="20">
         <v>5</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="I61" s="24">
         <v>21</v>
@@ -4482,16 +4479,16 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="13"/>
       <c r="I62" s="24">
         <v>0</v>
@@ -4499,16 +4496,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
       <c r="H63" s="13"/>
       <c r="I63" s="24">
         <v>1</v>
@@ -4516,24 +4513,24 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C64" s="20">
         <v>5</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
       <c r="H64" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I64" s="24">
         <v>45</v>
@@ -4541,24 +4538,24 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" s="20">
         <v>10</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
+        <v>61</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
       <c r="H65" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I65" s="24">
         <v>16</v>
@@ -4566,24 +4563,24 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C66" s="20">
         <v>3</v>
       </c>
       <c r="D66" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="I66" s="24">
         <v>8</v>
@@ -4591,24 +4588,24 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C67" s="20">
         <v>5</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="I67" s="24">
         <v>1</v>
@@ -4616,22 +4613,22 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C68" s="20">
         <v>3</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="12"/>
       <c r="I68" s="24">
         <v>2</v>
@@ -4639,22 +4636,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C69" s="20">
         <v>8</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
       <c r="H69" s="12"/>
       <c r="I69" s="24">
         <v>1</v>
@@ -4662,24 +4659,24 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="I70" s="24">
         <v>8</v>
@@ -4687,24 +4684,24 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" s="20">
         <v>0</v>
       </c>
       <c r="D71" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="I71" s="24">
         <v>3</v>
@@ -4712,22 +4709,22 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C72" s="20">
         <v>15</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
+        <v>71</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
       <c r="H72" s="12"/>
       <c r="I72" s="24">
         <v>0</v>
@@ -4735,24 +4732,24 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C73" s="20">
         <v>0</v>
       </c>
       <c r="D73" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E73" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="I73" s="24">
         <v>2</v>
@@ -4760,24 +4757,24 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C74" s="20">
         <v>0</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="I74" s="24">
         <v>1</v>
@@ -4785,24 +4782,24 @@
     </row>
     <row r="75" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C75" s="21">
         <v>0</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E75" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="14" t="s">
-        <v>262</v>
       </c>
       <c r="I75" s="25">
         <v>1</v>
@@ -4810,6 +4807,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E7:G7"/>
@@ -4826,63 +4880,6 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E63:G63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
